--- a/意向总结/result_yixiang/意向08月_对比_上.xlsx
+++ b/意向总结/result_yixiang/意向08月_对比_上.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,6 +50,7 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -65,74 +66,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -657,7 +590,11 @@
           <t>董斌</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -722,7 +659,11 @@
           <t>董斌</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -787,7 +728,11 @@
           <t>董斌</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -852,7 +797,11 @@
           <t>董斌</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -917,7 +866,11 @@
           <t>董斌</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -982,7 +935,11 @@
           <t>董斌</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1041,7 +998,11 @@
           <t>董斌</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1118,7 +1079,11 @@
           <t>杨照</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1195,7 +1160,11 @@
           <t>杨照</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1266,7 +1235,11 @@
           <t>杨照</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr"/>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1337,7 +1310,11 @@
           <t>杨照</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1408,7 +1385,11 @@
           <t>杨照</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr"/>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1469,7 +1450,11 @@
           <t>贾宇鑫</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr"/>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1530,7 +1515,11 @@
           <t>贾宇鑫</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1591,7 +1580,11 @@
           <t>贾宇鑫</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1652,7 +1645,11 @@
           <t>武思慧</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1713,7 +1710,11 @@
           <t>武思慧</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1774,7 +1775,11 @@
           <t>武思慧</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1892,7 +1897,11 @@
           <t>武思慧</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1969,7 +1978,11 @@
           <t>李想</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2048,7 +2061,11 @@
           <t>李想</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr"/>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2129,7 +2146,11 @@
           <t>李想</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr"/>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2206,7 +2227,11 @@
           <t>李想</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr"/>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2287,7 +2312,11 @@
           <t>李想</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr"/>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2364,7 +2393,11 @@
           <t>李想</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr"/>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2421,7 +2454,7 @@
         <v>45</v>
       </c>
       <c r="P29" t="n">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2433,7 +2466,11 @@
           <t>李想</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr"/>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2489,8 +2526,10 @@
       <c r="O30" t="n">
         <v>55</v>
       </c>
-      <c r="P30" t="n">
-        <v>60</v>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -2502,7 +2541,11 @@
           <t>李想</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr"/>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2562,8 +2605,10 @@
       <c r="O31" t="n">
         <v>55</v>
       </c>
-      <c r="P31" t="n">
-        <v>60</v>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -2640,7 +2685,7 @@
         <v>50</v>
       </c>
       <c r="P32" t="n">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -2713,7 +2758,11 @@
           <t>徐明月</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr"/>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2770,7 +2819,11 @@
           <t>徐明月</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2827,7 +2880,11 @@
           <t>徐明月</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr"/>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2884,7 +2941,11 @@
           <t>徐明月</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr"/>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2941,7 +3002,11 @@
           <t>徐明月</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr"/>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3002,7 +3067,11 @@
           <t>徐明月</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr"/>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3063,7 +3132,11 @@
           <t>徐明月</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr"/>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3120,7 +3193,11 @@
           <t>徐明月</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr"/>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -3173,7 +3250,11 @@
           <t>徐明月</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr"/>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -3230,7 +3311,11 @@
           <t>徐明月</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr"/>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -3287,7 +3372,11 @@
           <t>徐明月</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr"/>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -3344,7 +3433,11 @@
           <t>徐明月</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr"/>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -3401,7 +3494,11 @@
           <t>徐明月</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr"/>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -3466,7 +3563,11 @@
           <t>王兴龙</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr"/>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3531,7 +3632,11 @@
           <t>王兴龙</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr"/>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3596,7 +3701,11 @@
           <t>王兴龙</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr"/>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3661,7 +3770,11 @@
           <t>王兴龙</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr"/>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3726,7 +3839,11 @@
           <t>王兴龙</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr"/>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3791,7 +3908,11 @@
           <t>王兴龙</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr"/>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3856,7 +3977,11 @@
           <t>王兴龙</t>
         </is>
       </c>
-      <c r="S52" t="inlineStr"/>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3921,7 +4046,11 @@
           <t>王兴龙</t>
         </is>
       </c>
-      <c r="S53" t="inlineStr"/>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -4055,7 +4184,11 @@
           <t>梁小东</t>
         </is>
       </c>
-      <c r="S55" t="inlineStr"/>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -4189,7 +4322,11 @@
           <t>梁小东</t>
         </is>
       </c>
-      <c r="S57" t="inlineStr"/>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -4254,7 +4391,11 @@
           <t>梁小东</t>
         </is>
       </c>
-      <c r="S58" t="inlineStr"/>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -4319,7 +4460,11 @@
           <t>梁小东</t>
         </is>
       </c>
-      <c r="S59" t="inlineStr"/>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -4384,7 +4529,11 @@
           <t>梁小东</t>
         </is>
       </c>
-      <c r="S60" t="inlineStr"/>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -4449,7 +4598,11 @@
           <t>梁小东</t>
         </is>
       </c>
-      <c r="S61" t="inlineStr"/>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -4504,7 +4657,11 @@
           <t>郭孟蛟</t>
         </is>
       </c>
-      <c r="S62" t="inlineStr"/>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -4555,7 +4712,11 @@
           <t>郭孟蛟</t>
         </is>
       </c>
-      <c r="S63" t="inlineStr"/>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -4606,7 +4767,11 @@
           <t>郭孟蛟</t>
         </is>
       </c>
-      <c r="S64" t="inlineStr"/>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -4657,7 +4822,11 @@
           <t>郭孟蛟</t>
         </is>
       </c>
-      <c r="S65" t="inlineStr"/>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -4708,7 +4877,11 @@
           <t>郭孟蛟</t>
         </is>
       </c>
-      <c r="S66" t="inlineStr"/>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -4759,7 +4932,11 @@
           <t>郭孟蛟</t>
         </is>
       </c>
-      <c r="S67" t="inlineStr"/>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4865,7 +5042,11 @@
           <t>郭孟蛟</t>
         </is>
       </c>
-      <c r="S69" t="inlineStr"/>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -5662,7 +5843,11 @@
           <t>段玉晶</t>
         </is>
       </c>
-      <c r="S80" t="inlineStr"/>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -5729,7 +5914,11 @@
           <t>段玉晶</t>
         </is>
       </c>
-      <c r="S81" t="inlineStr"/>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -5796,7 +5985,11 @@
           <t>段玉晶</t>
         </is>
       </c>
-      <c r="S82" t="inlineStr"/>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
